--- a/biology/Botanique/Didymoglossum/Didymoglossum.xlsx
+++ b/biology/Botanique/Didymoglossum/Didymoglossum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre présentent :
 un long rhizome traçant, couvert de poils bruns à noirâtres et sans racines
@@ -549,20 +563,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Historique du genre
-Il est d'abord créé en 1827 comme genre de la famille des Hymenophyllacées par Nicaise Augustin Desvaux.
-En 1843, Karel Bořivoj Presl crée un regroupement supra-générique Didymoglosseae à côté de Trichomaneae qu'il nomme (illégalement au regard du code de Botanique) « Section ». À l'intérieur des Didymoglosseae, il place trois genres Didymoglossum, Meringium et Hemiphlebium (à l'intérieur des Trichomaneae, il place les genres Feea, Hymenostachys, Lecanium, Cardiomanes, Trichomanes, Ragatelus, Neurophyllum, Microgonium et Abrodictyum : dont deux de ces genres - Lecanium et Microgonium - serviront à la redéfinition du genre Didymoglossum[1]. En 1851, une redéfinition le conduit à maintenir uniquement quatre espèces dans le genre Didymoglossum.
+          <t>Historique du genre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est d'abord créé en 1827 comme genre de la famille des Hymenophyllacées par Nicaise Augustin Desvaux.
+En 1843, Karel Bořivoj Presl crée un regroupement supra-générique Didymoglosseae à côté de Trichomaneae qu'il nomme (illégalement au regard du code de Botanique) « Section ». À l'intérieur des Didymoglosseae, il place trois genres Didymoglossum, Meringium et Hemiphlebium (à l'intérieur des Trichomaneae, il place les genres Feea, Hymenostachys, Lecanium, Cardiomanes, Trichomanes, Ragatelus, Neurophyllum, Microgonium et Abrodictyum : dont deux de ces genres - Lecanium et Microgonium - serviront à la redéfinition du genre Didymoglossum. En 1851, une redéfinition le conduit à maintenir uniquement quatre espèces dans le genre Didymoglossum.
 En 1857, Thomas Moore en fait une section du genre Trichomanes.
-En 1906, Carl Frederik Albert Christensen replace le genre de Nicaise Augustin Desvaux comme sous-genre parmi les différents sous-genres de Trichomanes (Serpyllopsis, Didymoglossum, Gonocormus, Cardiomanes, Achomanes, Feea, Cephalomanes, Eutrichomanes) ; il lui attribue trois sections : Microgonium, Hemiphlebium et Lecanium[2].
+En 1906, Carl Frederik Albert Christensen replace le genre de Nicaise Augustin Desvaux comme sous-genre parmi les différents sous-genres de Trichomanes (Serpyllopsis, Didymoglossum, Gonocormus, Cardiomanes, Achomanes, Feea, Cephalomanes, Eutrichomanes) ; il lui attribue trois sections : Microgonium, Hemiphlebium et Lecanium.
 En 1938, Edwin Bingham Copeland redéfinit le genre de Desvaux. 
-En 1962, Jan Gerard Wessels Boer fait de Didymoglossum une section du genre Trichomanes[3]
-En 1968, Conrad Vernon Morton le conserve en sous genre de Trichomanes mais le redéfinit avec trois sections à l'instar de Christensen : Didymoglossum, Microgonium et Lecanium[4].
+En 1962, Jan Gerard Wessels Boer fait de Didymoglossum une section du genre Trichomanes
+En 1968, Conrad Vernon Morton le conserve en sous genre de Trichomanes mais le redéfinit avec trois sections à l'instar de Christensen : Didymoglossum, Microgonium et Lecanium.
 Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, sur la base d'études de phylogénétique moléculaire, le redéfinissent comme genre à part entière - le genre initial de Desvaux -, avec seulement deux sous-genres correspondant aux sections de Christensen et Morton Didymoglossum et Microgonium.
-Liste des espèces
-La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[5] et Tropicos[6] à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, les informations taxinomiques ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Didymoglossum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didymoglossum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, les informations taxinomiques ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
 Le genre a été subdivisé en deux sous-genres : Didymoglossum et Microgonium.
-Sous-genre Didymoglossum
-Le sous-genre Didymoglossum comprend toutes les espèces qui ne présentent pas de fausses nervures submarginales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Didymoglossum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didymoglossum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sous-genre Didymoglossum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le sous-genre Didymoglossum comprend toutes les espèces qui ne présentent pas de fausses nervures submarginales.
 			Didymoglossum angustifrons
 			Didymoglossum barklyanum
 			Didymoglossum cordifolium
@@ -596,7 +689,7 @@
 Didymoglossum hookeri C.Presl (1843) - Amérique tropicale (Synonyme : Hemiphlebium hookeri (C.Presl) C.Presl)
 Didymoglossum hymenoides (Hedw.) Copel. (1938) - Amérique tropicale, Caraïbe (Synonymes : Didymoglossum apodum (Hook.) Bosch, Didymoglossum muscoides (Sw.) Desv., Didymoglossum reptans var. muscoides (Sw.) E.Fourn., Hemiphlebium hymenoides (Hedw.) Prantl, Trichomanes apodum Hook., Trichomanes hymenoides Hedw., Trichomanes muscoides Sw., Trichomanes pseudoreptans (Rosenst.) Sehnem)
 Didymoglossum krausii (Hook. &amp; Grev.) C.Presl (1843) - Amérique tropicale, Floride (Synonymes : Trichomanes krausii Hook. &amp; Grev., Hemiphlebium krausii (Hook. &amp; Grev.) Prantl)
-Didymoglossum krausii var. subpinnatifida W.Schaffn. - Mexique[8].
+Didymoglossum krausii var. subpinnatifida W.Schaffn. - Mexique.
 Didymoglossum laceratum Fée (1866) - Guadeloupe (Caraïbe, Amérique du Sud)
 Didymoglossum lehmannii (Hieron.) Copel. (1941) - Colombie (Synonyme : Trichomanes lehmannii Hieron.)
 Didymoglossum liberiense (Copel.) Copel. (1938) - Liberia (Synonyme : Trichomanes liberiense Copel.)
@@ -604,7 +697,7 @@
 Didymoglossum lorencei (Tardieu) Ebihara &amp; Dubuisson (2006) - Archipel des Comores (Synonyme : Trichomanes lorencei Tardieu)
 Didymoglossum melanopus (Baker) Copel. (1938) - Équateur (Synonyme : Trichomanes melanopus Baker)
 Didymoglossum membranaceum (L.) Vareschi (1969) - Amérique tropicale (Synonyme : Trichomanes membranaceum L., Lecanium membranaceum (L.) C.Presl, Hemiphlebium membranaceum (L.) Prantl, Lecanolepis membranacea (L.) Pic.Serm.)
-Didymoglossum montanum (Hook.) J.P.Roux (2009) - Amérique tropicale, Natal, Madagascar (Synonymes : Didymoglossum quercifolium (Hook. &amp; Grev.) C.Presl, Didymoglossum reptans var. quercifolium (Hook. &amp; Grev.) E.Fourn., Didymoglossum robinsonii (Hook. ex Baker) Copel., Trichomanes montanum Hook.,, Trichomanes pusillum var. quercifolium (Hook. &amp; Grev.) Baker, Trichomanes quercifolium Hook. &amp; Grev., Trichomanes reptans var. quercifolium (Hook. &amp; Grev.) Jenman, Trichomanes robinsonii Hook. ex Baker)
+Didymoglossum montanum (Hook.) J.P.Roux (2009) - Amérique tropicale, Natal, Madagascar (Synonymes : Didymoglossum quercifolium (Hook. &amp; Grev.) C.Presl, Didymoglossum reptans var. quercifolium (Hook. &amp; Grev.) E.Fourn., Didymoglossum robinsonii (Hook. ex Baker) Copel., Trichomanes montanum Hook. Trichomanes pusillum var. quercifolium (Hook. &amp; Grev.) Baker, Trichomanes quercifolium Hook. &amp; Grev., Trichomanes reptans var. quercifolium (Hook. &amp; Grev.) Jenman, Trichomanes robinsonii Hook. ex Baker)
 Didymoglossum mosenii (Lindm.) Copel. (1938) - Brésil (Amérique du Sud) (Synonyme : Trichomanes mosenii Lindm.)
 Didymoglossum motleyi (Bosch) Ebihara &amp; K.Iwats. (2006) - Taïwan, Asie tropicale, Mélanésie, Queensland, Afrique occidentale tropicale (Synonymes : Hemiphlebium motleyi (Bosch) Prantl, Microgonium motleyi Bosch, Trichomanes motleyi (Bosch) Bosch)
 Didymoglossum myrioneuron (Lindm.) Copel. (1938) - Amérique tropicale (Brésil, Guyane Française, Costa Rica) (Synonyme : Trichomanes myrioneuron Lindm.)
@@ -615,16 +708,54 @@
 Didymoglossum petersii (A.Gray) Copel. (1938) - États-Unis (Alabama, Géorgie, Mississippi) et Amérique centrale (Mexique, Costa Rica, Guatemala, Honduras et El Salvador) (Synonymes : Trichomanes petersii A.Gray, Hemiphlebium petersii (A.Gray) Prantl., Microgonium petersii (A.Gray) Bosch)
 Didymoglossum pinnatinervium (Jenman) Pic.Serm. (1973) - Guyana (Synonyme : Trichomanes pinnatinervium Jenman)
 Didymoglossum punctatum (Poir.) Desv. (1827) - Amérique tropicale (Synonymes : Didymoglossum sphenoides (Kunze) C.Presl, Trichomanes sphenoides Kunze, Trichomanes punctatum Poir., Trichomanes punctatum subsp. sphenoides (Kunze) Wess.Boer, Hemiphlebium punctatum (Poir.) Bosch)
-Didymoglossum pusillum (Sw.) Desv. (1827) - Caraïbe, Amérique tropicale (Synonymes : Trichomanes pusillum Sw., Hemiphlebium pusillum (Sw.) Prantl[9])
+Didymoglossum pusillum (Sw.) Desv. (1827) - Caraïbe, Amérique tropicale (Synonymes : Trichomanes pusillum Sw., Hemiphlebium pusillum (Sw.) Prantl)
 Didymoglossum reptans (Sw.) C.Presl (1843) - Caraïbe et Amérique tropicale (Synonyme : Trichomanes reptans Sw.)
 Didymoglossum reptans var. schaffneri (Schltdl.) E.Fourn. (1872) - Mexique (Synonymes : Trichomanes schaffneri Schltdl., Didymoglossum schaffneri (Schltdl.) Bosch)
 Didymoglossum rhipidophyllum (Sloss.) Pic.Serm. (1973) - Colombie (Synonyme :Trichomanes rhipidophyllum Sloss.)
 Didymoglossum sociale Fée (1872) - Brésil (Synonymes : Trichomanes sociale (Fée) Lindm., Trichomanes hymenoides f. socialis Rosenst.)
 Didymoglossum sublimbatum (Müll.Berol.) Ebihara &amp; K.Iwats. (2006) - Asie du Sud-Est (Cambodge, Chine - Yunnan et Guangxi -, Laos, Myanmar, Thaïlande et Vietnam), Malaisie, Nouvelle-Guinée (Synonymes : Hemiphlebium sublimbatum Prantl, Microgonium sublimbatum (Müll.Berol.) Bosch, Trichomanes baileyanum Watts, Trichomanes marchantioides Zippel ex Moritz, Trichomanes sublimbatum Müll.Berol.)
 Didymoglossum tahitense (Nadeaud) Ebihara &amp; K.Iwats. (2006) - Tahiti, Java, îles du Pacifique (Synonymes : Hemiphlebium peltatum (Baker) Luerss., Microgonium omphalodes Vieill. ex E.Fourn., Microgonium tahitense (Nadeaud) Tindale, Trichomanes omphalodes  (Vieill. ex E.Fourn.) C.Chr., Trichomanes pannosum Ces., Trichomanes peltatum Baker, Trichomanes tahitense Nadeaud)
-Didymoglossum wallii (Thwaites) Copel. (1938) - Ceylan (Synonyme : Trichomanes wallii Thwaites)
-Sous-genre Microgonium
-Le sous-genre Microgonium comprend toutes les espèces qui possèdent de fausses nervures submarginales.
+Didymoglossum wallii (Thwaites) Copel. (1938) - Ceylan (Synonyme : Trichomanes wallii Thwaites)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Didymoglossum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didymoglossum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sous-genre Microgonium</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le sous-genre Microgonium comprend toutes les espèces qui possèdent de fausses nervures submarginales.
 			Didymoglossum cuspidatum
 			Didymoglossum godmanii
 			Didymoglossum wesselsboeri
@@ -645,9 +776,47 @@
 Didymoglossum pygmaeum (C.Chr.) Ebihara &amp; Dubuisson (2006) - Madagascar (Synonyme : Trichomanes pygmaeum C.Chr.)
 Didymoglossum rotundifolium (Bonap.) J.P.Roux (2009) - Madagascar (Synonyme : Trichomanes rotundifolium Bonap.)
 Didymoglossum sinuatum (Bonap.) Ebihara &amp; Dubuisson (2006) - Madagascar (Synonyme : Trichomanes sinuatum Bonap.)
-Didymoglossum wesselsboeri Ebihara &amp; Dubuisson (2006) - Amérique tropicale (Synonymes : Trichomanes hookeri C.Presl, Microgonium berteroanum C.Presl)
-Autres espèces synonymes ou qui ont été classées à tort dans le genre Didymoglossum
-Didymoglossum acanthoides Bosch (1856) - Chine, Philippines, Thaïlande - Voir Hymenophyllum acanthoides (Bosch) Rosenst. (synonymes : Leptocionium acanthoides (Bosch) Bosch, Meringium acanthoides (Bosch) Copel.)
+Didymoglossum wesselsboeri Ebihara &amp; Dubuisson (2006) - Amérique tropicale (Synonymes : Trichomanes hookeri C.Presl, Microgonium berteroanum C.Presl)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Didymoglossum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didymoglossum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres espèces synonymes ou qui ont été classées à tort dans le genre Didymoglossum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Didymoglossum acanthoides Bosch (1856) - Chine, Philippines, Thaïlande - Voir Hymenophyllum acanthoides (Bosch) Rosenst. (synonymes : Leptocionium acanthoides (Bosch) Bosch, Meringium acanthoides (Bosch) Copel.)
 Didymoglossum aculeatum (J.Sm.) Bosch (1856) - Vietnam (Asie tropicale) - Voir Hymenophyllum aculeatum (J.Sm.) Racib. (synonymes : Trichomanes aculeatum J.Sm., Leptocionium aculeatum (J.Sm.) Bosch)
 Didymoglossum affine Bosch (1856) - Asie (Chine, Thaïlande) et Océan Indien (Indonésie) - Voir Hymenophyllum holochilum (Bosch) C.Chr. (synonyme : Didymoglossum affine Bosch, Leptocionium affine (Bosch) Bosch, Leptocionium holochilum (Bosch) Bosch, Meringium holochilum (Bosch) Copel.)
 Didymoglossum alatum Desv. (1827) - Jamaïque (Caraïbe et Amérique du Sud) - Voir Vandenboschia radicans (Sw.) Copel. (Synonyme : Trichomanes radicans Sw.)
@@ -659,7 +828,7 @@
 Didymoglossum braunii Bosch (1856) - Java, Bornéo - Voir Hymenophyllum brachyglossum A.Braun ex Kunze
 Didymoglossum brevipes C.Presl (1843) - Philippines, Bornéo - Voir Crepidomanes brevipes (C.Presl) Copel. (synonymes : Didymoglossum anomalum Bosch, Trichomanes brevipes (C.Presl) Baker, Trichomanes melanorhizon Hook.)
 Didymoglossum capillatum C.Presl (1843) - Madagascar - Voir Crepidomanes bipunctatum (Poir.) Copel.
-Didymoglossum decipiens Desv. (1827) - Saint Domingue, Guadeloupe - Voir genre Polyphlebium[10]
+Didymoglossum decipiens Desv. (1827) - Saint Domingue, Guadeloupe - Voir genre Polyphlebium
 Didymoglossum denticulatum (Sw.) Hassk. (1857) - Asie tropicale (Chine, Thaïlande), Java - Voir Hymenophyllum denticulatum Sw. (synonymes : Trichomanes denticulatum (Sw.) Poir., Leptocionium denticulatum (Sw.) Bosch, Meringium denticulatum (Sw.) Copel.)
 Didymoglossum dilatatum Bosch (1863) - Chine (Hainan) - Voir Crepidomanes dilatatum Ching
 Didymoglossum euphlebium Bosch (1863) - Inde - Voir Crepidomanes euphlebium (Bosch) R.D.Dixit &amp; Ghosh
@@ -677,7 +846,7 @@
 Didymoglossum longisetum C.Presl (1843) - Nouvelle-Guinée, Bornéo - Voir Abrodictyum obscurum (Blume) Ebihara &amp; K.Iwats. (synonymes : Cephalomanes obscurum (Blume) K.Iwats., Didymoglossum obscurum (Blume) Hassk., Selenodesmium obsucrum (Blume) Copel., Selenodesmium saxatile (Backh. ex Moore) Parris, Trichomanes englerianum Brause, Trichomanes latipinum Copel., Trichomanes obscurum Blume, Trichomanes papillatum Müll.Berol., Trichomanes racemulosum Bosch, Trichomanes saxatille Brackh. ex Moore)
 Didymoglossum magellanicum Desv. (1827) - Sud du Brésil - Voir Hymenophyllum magellanicum (Desv.) Willd.
 Didymoglossum minutulum (Gaudich.) C.Presl (1843) - Java, Taïwan, Nouvelle-Guinée, Polynésie - Voir Crepidomanes humile (G.Forst.) Bosch (synonymes : Trichomanes minutulum Gaudich., Trichomanes humile G.Forst.)
-Didymoglossum muscoides (Sw.) Desv. (1827) - Amérique tropicale - Voir Didymoglossum hymenoides (Hedw.) Copel. (synonymes : Didymoglossum reptans var. muscoides (Sw.) E.Fourn., Trichomanes muscoides Sw., Didymoglossum apodum (Hook. &amp; Grev.) Copel., Tricomanes hymenoides Hedw.) [11].
+Didymoglossum muscoides (Sw.) Desv. (1827) - Amérique tropicale - Voir Didymoglossum hymenoides (Hedw.) Copel. (synonymes : Didymoglossum reptans var. muscoides (Sw.) E.Fourn., Trichomanes muscoides Sw., Didymoglossum apodum (Hook. &amp; Grev.) Copel., Tricomanes hymenoides Hedw.) .
 Didymoglossum neesii (Blume) C.Presl (1843) - Java, Luzon - Voir Hymenophyllum neesii (Blume) Hook. (synonyme : Trichomanes neesii Blume)
 Didymoglossum obscurum (Blume) Hassk. (1857) - Nouvelle-Guinée, Bornéo - Voir Abrodictyum obscurum (Blume) Ebihara &amp; K.Iwats. (synonymes : Cephalomanes obscurum (Blume) K.Iwats., Didymoglossum longisetum C.Presl, Selenodesmium obsucrum (Blume) Copel., Selenodesmium saxatile (Backh. ex Moore) Parris, Trichomanes englerianum Brause, Trichomanes latipinum Copel., Trichomanes obscurum Blume, Trichomanes papillatum Müll.Berol., Trichomanes racemulosum Bosch, Trichomanes saxatille Brackh. ex Moore)
 Didymoglossum plicatum Bosch (1863) - Asie tropicale - Voir Crepidomanes plicatum  (Bosch) Ching
